--- a/biology/Neurosciences/Classe_ATC_N/Classe_ATC_N.xlsx
+++ b/biology/Neurosciences/Classe_ATC_N/Classe_ATC_N.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N, dénommée « Système nerveux », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N, dénommée « Système nerveux », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>N Système nerveux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>N01 Anesthésiques
 N02 Analgésiques
@@ -547,7 +561,9 @@
           <t>ATCvet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des sous-groupes de la classe ATCvet QN correspondante possède un sous-groupe supplémentaire, QN51, dénommé « Produits pour l'euthanasie animale ».
 </t>
